--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -575,7 +575,7 @@
         <v>45895</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44980</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45208</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44977.41337962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44791</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45810.5565162037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45099.51319444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>46050.43190972223</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44872</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44599.69256944444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44984</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45895.5059375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45898.45767361111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45833</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45827.50682870371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45842.29693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44729</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45849.56431712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45322</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>45406.55770833333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45546.56554398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45565.49403935186</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44992.68729166667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44285.63270833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44888.43023148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44245</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44557.47803240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44732</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44841.49872685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44620.55424768518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44620.56054398148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44453.56091435185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44813</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44508.83615740741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44875.47472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44356.46040509259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44326</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44298</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44460.54369212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44539.38949074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44755</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44713</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44356.4577662037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44452.57429398148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44351</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44524.60759259259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44489.36836805556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44426</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>44865.31504629629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44753.64795138889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44575</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44533.37256944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44461.58863425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44570.7678125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44494.43064814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44641.41877314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44692.6459375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44470.63061342593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44610.61052083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44865</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44791.5112962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44603.34966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44644</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44627</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44804.43328703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44438</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44452.57803240741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44238</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44238</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44292</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44789</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44546</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44388.75799768518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44265</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44272</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44327.36415509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44298.48719907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44722</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44722.47052083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44867.48452546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44330.85600694444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44460</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44839</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44879</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44347.37032407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44364.57402777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44298</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44875.48474537037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44532</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44791.50940972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44459.41479166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44879.36677083333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44267.52525462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44595.53346064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44494.42767361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44466.60142361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44369.60105324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>44456.47127314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>44376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44529.64541666667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44631.51841435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44648</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44798</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44427.38479166666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44266.64517361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44417</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44448.62255787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44448.62701388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44620.48642361111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44620.56289351852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44452.59166666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44636.91965277777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44302.41256944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44519.39663194444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44791</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44748.33731481482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44888.46783564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44820</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44334.62680555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44463.34797453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44371.61570601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44285.60979166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44448.61657407408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44494</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44509.57108796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44533.36805555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44522.40835648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44417</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44722.49434027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44685</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44468</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44698</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44680.58664351852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44631.64724537037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44523</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44756</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44749.62980324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44711.4805324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>44343</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44420</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>44753.66400462963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44540.34863425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44676.45506944445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>44428</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>44620</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44540.35796296296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>44445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44243.44302083334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>44698.44061342593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44685.90943287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44641.41453703704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44631.46165509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>44539.36767361111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44523.41112268518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44306.65480324074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44753.5284375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44375.38892361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44312</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44712.58903935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44578</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44420</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44596</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45274.61003472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>44448</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45561</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45688</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45395.6982175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45775</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45477.3696412037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45252.57751157408</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>45147.59756944444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45615.52596064815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>45362</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44586.42520833333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45631.62325231481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45377.44168981481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44676</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44965</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45617.87607638889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44631.53199074074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45635.47998842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45107.45663194444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45695.38024305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45086.72387731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45457</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45399</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>45399</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44991.37282407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44435</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45574.71269675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45110</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45310.42872685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45089.63690972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44939.42466435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45117</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45117</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45034</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45637.31768518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45033.46269675926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44971</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45700.4577199074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45303</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44545.69108796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44904</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44967</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44540.33586805555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45701.45875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45107.6415162037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45019.64087962963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45306</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44473.47971064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45344</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45155.57315972223</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>45359.52144675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45553.6357175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45155</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>45155</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44570.82280092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45447</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45247.56596064815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45247.56952546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44930.60707175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45608</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45466.61302083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45272.58155092593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44928.39131944445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44558.59878472222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45727.45702546297</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45164</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45164.6913425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44509.57325231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45107.63880787037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45071</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>44490</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44467</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45798.66282407408</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45180.46916666667</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44804</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44804</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45477.37409722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45533.27699074074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45692.37760416666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44481.71746527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45244.59684027778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45478.71304398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45246.34444444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45167</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45684.52679398148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45637.3166087963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45800.43210648148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44522.34871527777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44435</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44749.61423611111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45701.45229166667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45884.46671296296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45887.54020833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45240.38824074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45763.56696759259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45727</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45800.56369212963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45800.57278935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45194.5039699074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>45033.56914351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>45805.65516203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45244.5584375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45580.68637731481</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45580.6872337963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>45279.36726851852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45610.40166666666</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45803.84655092593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45362</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44818.77861111111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45671</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45366.35745370371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44971.51954861111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45461.56465277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45811.49784722222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44900</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>45875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45455.58665509259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45891</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45323.60738425926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45890.36122685186</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44950.55974537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44312.30976851852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45475.38958333333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45710.3284375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44937</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45553.65998842593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45685.49436342593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45181.53826388889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44426</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44582</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45664.49270833333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44617.58907407407</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45897.55859953703</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>45897.56900462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>45896.51361111111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>45574.59</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45896.51149305556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45173</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45274.60413194444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45898.30145833334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45898.30258101852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45881.4999537037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44753.66082175926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45394.33746527778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45793.58851851852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45898.41762731481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45635.46958333333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45646.79543981481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45029.70599537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45702.43898148148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45191</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45902.7003125</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45820.36880787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45443</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45646.7996412037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45903.55363425926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45327.82774305555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>45820.78407407407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45902.70890046296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45903.55202546297</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45821.34012731481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45903.51274305556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45803.88311342592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44483.60684027777</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45904.31614583333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45394.32820601852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45904.42247685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45905.66465277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45176.46469907407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45695.38659722222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45908.6147337963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45792.53266203704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45789.36847222222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45908.47</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45908.61346064815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44883.55409722222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45909.74082175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45152.32761574074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45911.5083912037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45911.51158564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45825.41503472222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44984</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45034.46636574074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45827.38292824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44938</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44881.59844907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45036</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44545.69655092592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45203.38741898148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44691.57900462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>45154.61569444444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45919.45515046296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45831.74694444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45917.84770833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45919.59701388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>45831.75487268518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44993.65773148148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45107.41297453704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45923.67896990741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45001</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45922.34325231481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45922.47166666666</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45922.51623842592</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45922.51841435185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45833.55715277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44370</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45923.674375</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45832.55674768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45922.47278935185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45247.57582175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45832.49506944444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45833.55179398148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45709.56060185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>44609</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45349.62076388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45170</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45548.36065972222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44481.71842592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45925.70990740741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45924.49310185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44945</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44949</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45925.38702546297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45926.43168981482</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45926.59025462963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45926.32541666667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45238.45707175926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45036</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45834.49486111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45931.43657407408</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45553.66137731481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45930.46203703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45839.59554398148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45838.44895833333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45839.59809027778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45434.6920949074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45700.4653587963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45932.53429398148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45933.29821759259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>45933.41994212963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45722</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45210.36392361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45183</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>45183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>45250.43831018519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45841</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45840.47287037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45474</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44964.34165509259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45559</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45260.57837962963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45937.45518518519</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45938.56199074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45937.45954861111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44631.46039351852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44454</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45841.91457175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44936.61140046296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44936</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45677.59115740741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>45940.00979166666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45727.33197916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45841.90819444445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45467</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45467</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45467</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45944.38280092592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>45553.64894675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45895.48666666666</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45742.31431712963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>45947.62445601852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>45848.61209490741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>45751.41162037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45848.61425925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44452.5708912037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45082</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>45082.41980324074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>45950.91234953704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>45951.43425925926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>45950.91074074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45950.91810185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>45951.46040509259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>45755.48774305556</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>45757.32127314815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44634</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45035.58140046296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44462</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45684.55832175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>45090.69401620371</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45698.40377314815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>45553.89721064815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45445.42417824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>45953.42959490741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>45644.55795138889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45873.48318287037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45342.61726851852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45266</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44991.37030092593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45873</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>45873.61965277778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>45873.62280092593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>44904</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>45062.41892361111</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44964</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31531,7 +31531,7 @@
         <v>45873.45962962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45012</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>45681.57925925926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>45162.46358796296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>45412.33401620371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44909.56182870371</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44928.37655092592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>45211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>44258</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>44965.48167824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45874.68646990741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45875.59371527778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45877</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44790</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45267.54905092593</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45264</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44888.47229166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45093</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45876.65726851852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44895</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45964.48408564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45107.30564814815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45881.47059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45881.47516203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>45964</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45069.57748842592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45574</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45574</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>45574</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44935</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45631</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45971.28083333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45002</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45408.34063657407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45644.39822916667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>45882.43188657407</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45229</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45967.75966435186</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>45191.32893518519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>45972.59927083334</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>45547</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44518.26645833333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>45264</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>45264.80452546296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45596.8827662037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45106.30399305555</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45887.58039351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44728</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45618.40965277778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45887.57631944444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44489</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>45884.4652662037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>45267.54662037037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>45329</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45825.70871527777</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45407.56440972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45539.60410879629</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45978.8705787037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44967.4374537037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44967.48209490741</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45979.6515162037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35080,7 +35080,7 @@
         <v>44930.58310185185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35137,7 +35137,7 @@
         <v>45097</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>45981.67037037037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>45981.5594212963</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45331.36413194444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>44950</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>45980</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35479,7 +35479,7 @@
         <v>45197.63912037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35536,7 +35536,7 @@
         <v>44599.46640046296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>45439</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>45982</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44988.38652777778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45688</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>45432.37760416666</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35878,7 +35878,7 @@
         <v>45727.42905092592</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>45727.4515625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45462</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>45412.33927083333</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         <v>45771</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>44756</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44953</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44599.69871527778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>45002</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44266.43513888889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>46029</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>45533.54414351852</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44993.38681712963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45735.76244212963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45735.76439814815</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>46030.27077546297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>44288.50678240741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>45325.3631712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>46031.4178587963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37018,7 +37018,7 @@
         <v>46031.5949537037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
         <v>46031.60041666667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>44930.59520833333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45434.50174768519</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45061</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37308,7 +37308,7 @@
         <v>46031.57244212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
         <v>45117</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45117</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>46031.60525462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>46029.92524305556</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45395.69365740741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>45173.37136574074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>45090.69125</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>45992.45549768519</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45082.45512731482</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>44316</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45201.86790509259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>44425</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45992.3244212963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45552.66143518518</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38163,7 +38163,7 @@
         <v>45979.68732638889</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>44299.58810185185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>46035.41473379629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38334,7 +38334,7 @@
         <v>46035.41711805556</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38391,7 +38391,7 @@
         <v>44657.34813657407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>45629.67857638889</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>45629.68018518519</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45062.41542824074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45077.50006944445</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>45993.37643518519</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38733,7 +38733,7 @@
         <v>46035.433125</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>44769.55420138889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45600.51381944444</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38904,7 +38904,7 @@
         <v>44428.62381944444</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>45331.49637731481</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>44916.42905092592</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>45002</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>45002</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45439.42700231481</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>44470</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>44995</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45622</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45117</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>45129.5234375</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45547</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>45121.37194444444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>46040.80876157407</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45574.6072337963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>46036</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39821,7 +39821,7 @@
         <v>46036</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44930.58833333333</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>46038</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45635.47542824074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>46042.34600694444</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44930.61665509259</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>45005.39861111111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>45005</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>46000.44898148148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>46000.45493055556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45330.61230324074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>46000.92856481481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>46000</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>44550.91732638889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>46038</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46038</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>46043.59380787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45755.74106481481</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45261</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44495</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>46044.7053125</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46003.55077546297</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>46044.48165509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>46044.51675925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45429</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45429.37171296297</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44545.69075231482</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45691.71813657408</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46045.52300925926</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>46045.54962962963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41581,7 +41581,7 @@
         <v>45469.46677083334</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41638,7 +41638,7 @@
         <v>45106.86053240741</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45261</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46045.53836805555</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41814,7 +41814,7 @@
         <v>46044.56614583333</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>46044.51519675926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41938,7 +41938,7 @@
         <v>44705</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>45609.47512731481</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>46043.59914351852</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>46003.54471064815</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>44831.61528935185</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>44831.61790509259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>44960.35675925926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45356.56041666667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>46007.54017361111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>46007.591875</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46048.49688657407</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46007.59954861111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>46048.53172453704</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>46007.5422337963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>45678.43621527778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>45197.63037037037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42880,7 +42880,7 @@
         <v>46008.36716435185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>46049.42145833333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45007.97726851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45408.29181712963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46049</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44627.42074074074</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>45601.67561342593</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43289,7 +43289,7 @@
         <v>45546.58138888889</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>45307.39928240741</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>45726</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45540.59579861111</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45540.64592592593</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>44463</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45300.4487962963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46010</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45002.41061342593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45896.5199537037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>44939</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>44895.51835648148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>44916.42804398148</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>46038</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>46038</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>44655.47528935185</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>46010</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>46000</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>44936.62181712963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>44936</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>45160</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44491,7 +44491,7 @@
         <v>45426.43824074074</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44548,7 +44548,7 @@
         <v>46043.58241898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>46056.39016203704</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45401.35483796296</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44748.32592592593</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>45139</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44838,7 +44838,7 @@
         <v>44820</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44895,7 +44895,7 @@
         <v>45078.66384259259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44952,7 +44952,7 @@
         <v>45078</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45009,7 +45009,7 @@
         <v>45106.82878472222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>46056.39130787037</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>45215.35358796296</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>45109.84163194444</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
         <v>44673.64371527778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45294,7 +45294,7 @@
         <v>45328</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45351,7 +45351,7 @@
         <v>44945.43136574074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45408,7 +45408,7 @@
         <v>44728</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45465,7 +45465,7 @@
         <v>45007</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45522,7 +45522,7 @@
         <v>46058.6093287037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>44907.72450231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45684.55307870371</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45702.48780092593</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>45063.50965277778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45807,7 +45807,7 @@
         <v>45063.51554398148</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45864,7 +45864,7 @@
         <v>45644.59047453704</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45921,7 +45921,7 @@
         <v>44390.6009837963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45978,7 +45978,7 @@
         <v>45474.37907407407</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46035,7 +46035,7 @@
         <v>45302.6375462963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46092,7 +46092,7 @@
         <v>44820</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46149,7 +46149,7 @@
         <v>45215.42108796296</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>45245.43540509259</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>44963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45155.72224537037</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45418</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>45085.68162037037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>45756</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45439.46791666667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46610,7 +46610,7 @@
         <v>45034.29767361111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46667,7 +46667,7 @@
         <v>45394.34818287037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         <v>44446.56373842592</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>44624</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>44928.57497685185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45267.48949074074</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45299</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45264.80158564815</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45314.69070601852</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44875</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44505.56627314815</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45614.3747337963</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>44620.55774305556</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45261</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45384.37467592592</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45436.38177083333</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45644.43983796296</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47584,7 +47584,7 @@
         <v>45394.33961805556</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>44911</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47698,7 +47698,7 @@
         <v>44313</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45113.43203703704</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47812,7 +47812,7 @@
         <v>45099.52606481482</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47869,7 +47869,7 @@
         <v>45155</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44427.54488425926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45547.43822916667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45579.4727662037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45579</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45702.49078703704</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48211,7 +48211,7 @@
         <v>45568</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48268,7 +48268,7 @@
         <v>45772</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48325,7 +48325,7 @@
         <v>44838.42135416667</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48382,7 +48382,7 @@
         <v>44302</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48439,7 +48439,7 @@
         <v>45674.4733449074</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48496,7 +48496,7 @@
         <v>45637.3090162037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48558,7 +48558,7 @@
         <v>45637.31978009259</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48620,7 +48620,7 @@
         <v>44700.65032407407</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48677,7 +48677,7 @@
         <v>45424.34530092592</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48734,7 +48734,7 @@
         <v>45240.37677083333</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48791,7 +48791,7 @@
         <v>44524</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48848,7 +48848,7 @@
         <v>45226.57850694445</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48905,7 +48905,7 @@
         <v>45314.68846064815</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48962,7 +48962,7 @@
         <v>45009.68813657408</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45540.55045138889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>44740.4180324074</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>44949.4493287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>44265</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>45758.41136574074</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49314,7 +49314,7 @@
         <v>45236</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49371,7 +49371,7 @@
         <v>45614.33466435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49428,7 +49428,7 @@
         <v>45685.41125</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49485,7 +49485,7 @@
         <v>45109.83387731481</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49542,7 +49542,7 @@
         <v>45110.37491898148</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49599,7 +49599,7 @@
         <v>44994</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49656,7 +49656,7 @@
         <v>45720.30268518518</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49713,7 +49713,7 @@
         <v>44621.48859953704</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49770,7 +49770,7 @@
         <v>44903.32229166666</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49827,7 +49827,7 @@
         <v>44489.36054398148</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49884,7 +49884,7 @@
         <v>45201</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         <v>45436.36854166666</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49998,7 +49998,7 @@
         <v>44250</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50055,7 +50055,7 @@
         <v>45386.59690972222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50112,7 +50112,7 @@
         <v>45439.46385416666</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>44628.67694444444</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         <v>44614.42685185185</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50283,7 +50283,7 @@
         <v>45119.4822337963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>45152</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>45680</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>45574</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>45372.51082175926</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50568,7 +50568,7 @@
         <v>45215</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50625,7 +50625,7 @@
         <v>45547</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50682,7 +50682,7 @@
         <v>44795</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         <v>45646.8040625</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50796,7 +50796,7 @@
         <v>45449.62283564815</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50853,7 +50853,7 @@
         <v>45449.62583333333</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50910,7 +50910,7 @@
         <v>45182</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50967,7 +50967,7 @@
         <v>45240.3635300926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51024,7 +51024,7 @@
         <v>45240.39980324074</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51081,7 +51081,7 @@
         <v>45166.33278935185</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51138,7 +51138,7 @@
         <v>44984</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51195,7 +51195,7 @@
         <v>45155.56731481481</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45112.54576388889</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>44960.56908564815</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>44620.35722222222</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45559</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>44867</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45188</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45370.43637731481</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45411.88930555555</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51713,7 +51713,7 @@
         <v>45559</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51770,7 +51770,7 @@
         <v>45329</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51832,7 +51832,7 @@
         <v>45406.56274305555</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51889,7 +51889,7 @@
         <v>44446.48659722223</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51946,7 +51946,7 @@
         <v>45461.85684027777</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52008,7 +52008,7 @@
         <v>45432</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45091</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52127,7 +52127,7 @@
         <v>45546.66178240741</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52184,7 +52184,7 @@
         <v>45264.80734953703</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52241,7 +52241,7 @@
         <v>44698</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44627.6955787037</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44602</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45548.37193287037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45176.46045138889</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>44904.48119212963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45051</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>44685</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>44685</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>45755</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52811,7 +52811,7 @@
         <v>45035.56302083333</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52868,7 +52868,7 @@
         <v>44343</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52925,7 +52925,7 @@
         <v>44949.44320601852</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52982,7 +52982,7 @@
         <v>45138</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53039,7 +53039,7 @@
         <v>44984</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53096,7 +53096,7 @@
         <v>45559</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53153,7 +53153,7 @@
         <v>45062.5940162037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53210,7 +53210,7 @@
         <v>44712.45701388889</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53267,7 +53267,7 @@
         <v>45176.46609953704</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53324,7 +53324,7 @@
         <v>45252.56825231481</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53381,7 +53381,7 @@
         <v>45252.60836805555</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53438,7 +53438,7 @@
         <v>45331.35601851852</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53495,7 +53495,7 @@
         <v>45331.35946759259</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53552,7 +53552,7 @@
         <v>45331.3629050926</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53609,7 +53609,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         <v>45299</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53723,7 +53723,7 @@
         <v>45117</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53780,7 +53780,7 @@
         <v>44657.40945601852</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53837,7 +53837,7 @@
         <v>45303</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53894,7 +53894,7 @@
         <v>45711</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -53951,7 +53951,7 @@
         <v>45758.41546296296</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54013,7 +54013,7 @@
         <v>45600.45130787037</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54070,7 +54070,7 @@
         <v>44972.4353587963</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54127,7 +54127,7 @@
         <v>45109.88641203703</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54184,7 +54184,7 @@
         <v>44575</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54241,7 +54241,7 @@
         <v>45071</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54298,7 +54298,7 @@
         <v>45071.61512731481</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54355,7 +54355,7 @@
         <v>45392.35590277778</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54412,7 +54412,7 @@
         <v>45183.60244212963</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54469,7 +54469,7 @@
         <v>44950.55744212963</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54526,7 +54526,7 @@
         <v>44988.39340277778</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54583,7 +54583,7 @@
         <v>45071</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54640,7 +54640,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54697,7 +54697,7 @@
         <v>45720.54211805556</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54754,7 +54754,7 @@
         <v>44967</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54816,7 +54816,7 @@
         <v>44901.43681712963</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54873,7 +54873,7 @@
         <v>44901.44385416667</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54930,7 +54930,7 @@
         <v>45308.48898148148</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>44376.60693287037</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55049,7 +55049,7 @@
         <v>45386.66395833333</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         <v>45082</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55163,7 +55163,7 @@
         <v>45182</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55220,7 +55220,7 @@
         <v>45674.4681712963</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55277,7 +55277,7 @@
         <v>45601</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55334,7 +55334,7 @@
         <v>44998.39121527778</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55391,7 +55391,7 @@
         <v>45188.57582175926</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55448,7 +55448,7 @@
         <v>45371.52966435185</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55505,7 +55505,7 @@
         <v>45572.43400462963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55562,7 +55562,7 @@
         <v>45327.82945601852</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55624,7 +55624,7 @@
         <v>44620</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55686,7 +55686,7 @@
         <v>45755</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55743,7 +55743,7 @@
         <v>45769.40989583333</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55800,7 +55800,7 @@
         <v>45607.56002314815</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55857,7 +55857,7 @@
         <v>45713.43387731481</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55914,7 +55914,7 @@
         <v>45124.51753472222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -55971,7 +55971,7 @@
         <v>45616</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56028,7 +56028,7 @@
         <v>45275</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56085,7 +56085,7 @@
         <v>45175</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56142,7 +56142,7 @@
         <v>45338.61513888889</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>44748.32376157407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56256,7 +56256,7 @@
         <v>45646.61111111111</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45574.59706018519</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56370,7 +56370,7 @@
         <v>45562.33819444444</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56427,7 +56427,7 @@
         <v>45615.52241898148</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56484,7 +56484,7 @@
         <v>45419.61716435185</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56541,7 +56541,7 @@
         <v>45777.54184027778</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56598,7 +56598,7 @@
         <v>45777.54693287037</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56655,7 +56655,7 @@
         <v>45519</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56712,7 +56712,7 @@
         <v>45089.63065972222</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56769,7 +56769,7 @@
         <v>45278.46920138889</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56826,7 +56826,7 @@
         <v>45670</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56883,7 +56883,7 @@
         <v>45602.49121527778</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
         <v>45782.62265046296</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         <v>45553.43114583333</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57054,7 +57054,7 @@
         <v>45782.61675925926</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45546</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         <v>45784.48793981481</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57225,7 +57225,7 @@
         <v>45709.60627314815</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57282,7 +57282,7 @@
         <v>45785.32844907408</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>45784.4921412037</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>45176.58252314815</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>45785.54833333333</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57510,7 +57510,7 @@
         <v>44783</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57567,7 +57567,7 @@
         <v>45266</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57629,7 +57629,7 @@
         <v>45712.55288194444</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45679.65525462963</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45789.39083333333</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57800,7 +57800,7 @@
         <v>45679</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57857,7 +57857,7 @@
         <v>45230</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -57914,7 +57914,7 @@
         <v>44783</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -57971,7 +57971,7 @@
         <v>45568.36784722222</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58028,7 +58028,7 @@
         <v>45511</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58085,7 +58085,7 @@
         <v>45636.36040509259</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58147,7 +58147,7 @@
         <v>45786.46171296296</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58209,7 +58209,7 @@
         <v>45345</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58266,7 +58266,7 @@
         <v>45789.38111111111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58323,7 +58323,7 @@
         <v>45789.38739583334</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58380,7 +58380,7 @@
         <v>45252</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         <v>44407</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>45594</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58551,7 +58551,7 @@
         <v>45345</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45562.70030092593</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45590</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58722,7 +58722,7 @@
         <v>45597.63311342592</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58779,7 +58779,7 @@
         <v>45637.31363425926</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58841,7 +58841,7 @@
         <v>45576.55013888889</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -58898,7 +58898,7 @@
         <v>45565.32006944445</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -58955,7 +58955,7 @@
         <v>45524.58696759259</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59012,7 +59012,7 @@
         <v>45670.48797453703</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45793.59197916667</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59126,7 +59126,7 @@
         <v>45793.60109953704</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59183,7 +59183,7 @@
         <v>45793.59478009259</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59240,7 +59240,7 @@
         <v>45793.61269675926</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59297,7 +59297,7 @@
         <v>45796.39645833334</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -575,7 +575,7 @@
         <v>45895</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44980</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45208</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44977.41337962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44791</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45810.5565162037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45099.51319444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>46050.43190972223</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44872</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44599.69256944444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44984</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45895.5059375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45898.45767361111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45833</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45827.50682870371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45842.29693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44729</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45849.56431712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45322</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>45406.55770833333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45546.56554398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45565.49403935186</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44992.68729166667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44285.63270833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44888.43023148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44245</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44557.47803240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44732</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44841.49872685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44620.55424768518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44620.56054398148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44453.56091435185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44813</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44508.83615740741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44875.47472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44356.46040509259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44326</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44298</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44460.54369212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44539.38949074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44755</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44713</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44356.4577662037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44452.57429398148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44351</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44524.60759259259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44489.36836805556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44426</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>44865.31504629629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44753.64795138889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44575</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44533.37256944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44461.58863425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44570.7678125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44494.43064814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44641.41877314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44692.6459375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44470.63061342593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44610.61052083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44865</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44791.5112962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44603.34966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44644</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44627</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44804.43328703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44438</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44452.57803240741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44238</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44238</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44292</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44789</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44546</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44388.75799768518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44265</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44272</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44327.36415509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44298.48719907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44722</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44722.47052083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44867.48452546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44330.85600694444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44460</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44839</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44879</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44347.37032407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44364.57402777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44298</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44875.48474537037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44532</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44791.50940972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44459.41479166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44879.36677083333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44267.52525462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44595.53346064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44494.42767361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44466.60142361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44369.60105324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>44456.47127314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>44376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44529.64541666667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44631.51841435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44648</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44798</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44427.38479166666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44266.64517361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44417</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44448.62255787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44448.62701388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44620.48642361111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44620.56289351852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44452.59166666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44636.91965277777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44302.41256944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44519.39663194444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44791</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44748.33731481482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44888.46783564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44820</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44334.62680555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44463.34797453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44371.61570601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44285.60979166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44448.61657407408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44494</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44509.57108796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44533.36805555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44522.40835648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44417</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44722.49434027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44685</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44468</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44698</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44680.58664351852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44631.64724537037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44523</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44756</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44749.62980324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44711.4805324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>44343</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44420</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>44753.66400462963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44540.34863425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44676.45506944445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>44428</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>44620</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44540.35796296296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>44445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44243.44302083334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>44698.44061342593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44685.90943287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44641.41453703704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44631.46165509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>44539.36767361111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44523.41112268518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44306.65480324074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44753.5284375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44375.38892361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44312</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44712.58903935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44578</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44420</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44596</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45274.61003472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>44448</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45561</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45688</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45395.6982175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45775</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45477.3696412037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45252.57751157408</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>45147.59756944444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45615.52596064815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>45362</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45082</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44586.42520833333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45631.62325231481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45377.44168981481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44676</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44965</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45617.87607638889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44631.53199074074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45635.47998842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45107.45663194444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45695.38024305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45086.72387731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45457</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45399</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>45399</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44991.37282407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44435</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45574.71269675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45110</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45310.42872685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45089.63690972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44939.42466435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45117</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45117</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45034</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45637.31768518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45033.46269675926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44971</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45700.4577199074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45303</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44545.69108796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44904</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44967</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44540.33586805555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45701.45875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45107.6415162037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45019.64087962963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45306</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44473.47971064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45344</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45155.57315972223</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>45359.52144675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45553.6357175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45155</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>45155</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44570.82280092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45447</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45247.56596064815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45247.56952546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44930.60707175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45608</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45466.61302083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45272.58155092593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44928.39131944445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44558.59878472222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45727.45702546297</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45164</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45164.6913425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44509.57325231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45107.63880787037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45071</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>44490</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44467</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45798.66282407408</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45180.46916666667</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44804</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44804</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45477.37409722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45533.27699074074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45692.37760416666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44481.71746527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45244.59684027778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45478.71304398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45246.34444444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45167</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45684.52679398148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45637.3166087963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45800.43210648148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44522.34871527777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44435</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44749.61423611111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45701.45229166667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45884.46671296296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45887.54020833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45240.38824074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45763.56696759259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45727</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45800.56369212963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45800.57278935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45194.5039699074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>45033.56914351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>45805.65516203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45244.5584375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45580.68637731481</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45580.6872337963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>45279.36726851852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45610.40166666666</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45803.84655092593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45362</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44818.77861111111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45671</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45366.35745370371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44971.51954861111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45461.56465277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45811.49784722222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44900</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>45875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45455.58665509259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45891</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45323.60738425926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45890.36122685186</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44950.55974537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44312.30976851852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45475.38958333333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45710.3284375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44937</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45553.65998842593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45685.49436342593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45181.53826388889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44426</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44582</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45664.49270833333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44617.58907407407</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45897.55859953703</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>45897.56900462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>45896.51361111111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>45574.59</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45896.51149305556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45173</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45274.60413194444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45898.30145833334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45898.30258101852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45881.4999537037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44753.66082175926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45394.33746527778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45793.58851851852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45898.41762731481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45635.46958333333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45646.79543981481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45029.70599537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45702.43898148148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45191</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45902.7003125</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45820.36880787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45443</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45646.7996412037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45903.55363425926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45327.82774305555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>45820.78407407407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45902.70890046296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45903.55202546297</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45821.34012731481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45903.51274305556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45803.88311342592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44483.60684027777</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45904.31614583333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45394.32820601852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45904.42247685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45905.66465277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45176.46469907407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45695.38659722222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45908.6147337963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45792.53266203704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45789.36847222222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45908.47</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45908.61346064815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44883.55409722222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45909.74082175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45152.32761574074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45911.5083912037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45911.51158564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45825.41503472222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44984</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45034.46636574074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45827.38292824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44938</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44881.59844907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45036</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44545.69655092592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45203.38741898148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44691.57900462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>45154.61569444444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45919.45515046296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45831.74694444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45917.84770833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45919.59701388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>45831.75487268518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44993.65773148148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45107.41297453704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45923.67896990741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45001</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45922.34325231481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45922.47166666666</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45922.51623842592</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45922.51841435185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45833.55715277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44370</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45923.674375</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45832.55674768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45922.47278935185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45247.57582175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45832.49506944444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45833.55179398148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45709.56060185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>44609</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45349.62076388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45170</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45548.36065972222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44481.71842592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45925.70990740741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45924.49310185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44945</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44949</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45925.38702546297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45926.43168981482</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45926.59025462963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45926.32541666667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45238.45707175926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45036</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45834.49486111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45931.43657407408</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45553.66137731481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45930.46203703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45839.59554398148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45838.44895833333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45839.59809027778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45434.6920949074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45700.4653587963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45932.53429398148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45933.29821759259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>45933.41994212963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45722</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45210.36392361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45183</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>45183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>45250.43831018519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45841</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45840.47287037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45474</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44964.34165509259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45559</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45260.57837962963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45937.45518518519</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45938.56199074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45937.45954861111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44631.46039351852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44454</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45841.91457175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44936.61140046296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44936</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45677.59115740741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>45940.00979166666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45727.33197916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45841.90819444445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45467</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45467</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45467</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45944.38280092592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>45553.64894675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45895.48666666666</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45742.31431712963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>45947.62445601852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>45848.61209490741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>45751.41162037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45848.61425925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44452.5708912037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45082</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>45082.41980324074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>45950.91234953704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>45951.43425925926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>45950.91074074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45950.91810185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>45951.46040509259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>45755.48774305556</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>45757.32127314815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44634</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45035.58140046296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44462</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45684.55832175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>45090.69401620371</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45698.40377314815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>45553.89721064815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45445.42417824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>45953.42959490741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>45644.55795138889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45873.48318287037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45342.61726851852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45266</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44991.37030092593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45873</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>45873.61965277778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>45873.62280092593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>44904</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>45062.41892361111</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44964</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31531,7 +31531,7 @@
         <v>45873.45962962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45012</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>45681.57925925926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>45162.46358796296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>45412.33401620371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44909.56182870371</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44928.37655092592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>45211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>44258</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>44965.48167824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45874.68646990741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45875.59371527778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45877</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44790</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45267.54905092593</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45264</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44888.47229166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45093</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45876.65726851852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44895</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45964.48408564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45107.30564814815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45881.47059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45881.47516203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>45964</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45069.57748842592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45574</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45574</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>45574</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44935</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45631</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45971.28083333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45002</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45408.34063657407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45644.39822916667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>45882.43188657407</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45229</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45967.75966435186</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>45191.32893518519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>45972.59927083334</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>45547</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44518.26645833333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>45264</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>45264.80452546296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45596.8827662037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45106.30399305555</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45887.58039351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44728</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45618.40965277778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45887.57631944444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44489</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>45884.4652662037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>45267.54662037037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>45329</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45825.70871527777</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45407.56440972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45539.60410879629</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45978.8705787037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44967.4374537037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44967.48209490741</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45979.6515162037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35080,7 +35080,7 @@
         <v>44930.58310185185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35137,7 +35137,7 @@
         <v>45097</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>45981.67037037037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>45981.5594212963</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45331.36413194444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>44950</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>45980</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35479,7 +35479,7 @@
         <v>45197.63912037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35536,7 +35536,7 @@
         <v>44599.46640046296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>45439</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>45982</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44988.38652777778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45688</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>45432.37760416666</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35878,7 +35878,7 @@
         <v>45727.42905092592</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>45727.4515625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45462</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>45412.33927083333</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         <v>45771</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>44756</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44953</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44599.69871527778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>45002</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44266.43513888889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>46029</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>45533.54414351852</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44993.38681712963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45735.76244212963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45735.76439814815</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>46030.27077546297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>44288.50678240741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>45325.3631712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>46031.4178587963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37018,7 +37018,7 @@
         <v>46031.5949537037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
         <v>46031.60041666667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>44930.59520833333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45434.50174768519</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45061</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37308,7 +37308,7 @@
         <v>46031.57244212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
         <v>45117</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45117</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>46031.60525462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>46029.92524305556</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45395.69365740741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>45173.37136574074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>45090.69125</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>45992.45549768519</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45082.45512731482</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>44316</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45201.86790509259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>44425</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45992.3244212963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45552.66143518518</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38163,7 +38163,7 @@
         <v>45979.68732638889</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>44299.58810185185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>46035.41473379629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38334,7 +38334,7 @@
         <v>46035.41711805556</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38391,7 +38391,7 @@
         <v>44657.34813657407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>45629.67857638889</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>45629.68018518519</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45062.41542824074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45077.50006944445</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>45993.37643518519</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38733,7 +38733,7 @@
         <v>46035.433125</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>44769.55420138889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45600.51381944444</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38904,7 +38904,7 @@
         <v>44428.62381944444</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>45331.49637731481</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>44916.42905092592</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>45002</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>45002</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45439.42700231481</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>44470</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>44995</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45622</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45117</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>45129.5234375</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45547</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>45121.37194444444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>46040.80876157407</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45574.6072337963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>46036</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39821,7 +39821,7 @@
         <v>46036</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44930.58833333333</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>46038</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45635.47542824074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>46042.34600694444</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44930.61665509259</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>45005.39861111111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>45005</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>46000.44898148148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>46000.45493055556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45330.61230324074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>46000.92856481481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>46000</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>44550.91732638889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>46038</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46038</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>46043.59380787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45755.74106481481</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45261</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44495</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>46044.7053125</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46003.55077546297</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>46044.48165509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>46044.51675925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45429</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45429.37171296297</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44545.69075231482</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45691.71813657408</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46045.52300925926</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>46045.54962962963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41581,7 +41581,7 @@
         <v>45469.46677083334</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41638,7 +41638,7 @@
         <v>45106.86053240741</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45261</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46045.53836805555</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41814,7 +41814,7 @@
         <v>46044.56614583333</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>46044.51519675926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41938,7 +41938,7 @@
         <v>44705</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>45609.47512731481</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>46043.59914351852</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>46003.54471064815</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>44831.61528935185</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>44831.61790509259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>44960.35675925926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45356.56041666667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>46007.54017361111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>46007.591875</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46048.49688657407</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46007.59954861111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>46048.53172453704</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>46007.5422337963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>45678.43621527778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>45197.63037037037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42880,7 +42880,7 @@
         <v>46008.36716435185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>46049.42145833333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45007.97726851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45408.29181712963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46049</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44627.42074074074</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>45601.67561342593</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43289,7 +43289,7 @@
         <v>45546.58138888889</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>45307.39928240741</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>45726</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45540.59579861111</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45540.64592592593</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>44463</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45300.4487962963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46010</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45002.41061342593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45896.5199537037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>44939</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>44895.51835648148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>44916.42804398148</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>46038</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>46038</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>44655.47528935185</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>46010</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>46000</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>44936.62181712963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>44936</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>45160</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44491,7 +44491,7 @@
         <v>45426.43824074074</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44548,7 +44548,7 @@
         <v>46043.58241898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>46056.39016203704</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45401.35483796296</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44748.32592592593</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>45139</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44838,7 +44838,7 @@
         <v>44820</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44895,7 +44895,7 @@
         <v>45078.66384259259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44952,7 +44952,7 @@
         <v>45078</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45009,7 +45009,7 @@
         <v>45106.82878472222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>46056.39130787037</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>45215.35358796296</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>45109.84163194444</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
         <v>44673.64371527778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45294,7 +45294,7 @@
         <v>45328</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45351,7 +45351,7 @@
         <v>44945.43136574074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45408,7 +45408,7 @@
         <v>44728</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45465,7 +45465,7 @@
         <v>45007</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45522,7 +45522,7 @@
         <v>46058.6093287037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>44907.72450231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45684.55307870371</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45702.48780092593</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>45063.50965277778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45807,7 +45807,7 @@
         <v>45063.51554398148</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45864,7 +45864,7 @@
         <v>45644.59047453704</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45921,7 +45921,7 @@
         <v>44390.6009837963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45978,7 +45978,7 @@
         <v>45474.37907407407</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46035,7 +46035,7 @@
         <v>45302.6375462963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46092,7 +46092,7 @@
         <v>44820</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46149,7 +46149,7 @@
         <v>45215.42108796296</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>45245.43540509259</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>44963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45155.72224537037</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45418</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>45085.68162037037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>45756</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45439.46791666667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46610,7 +46610,7 @@
         <v>45034.29767361111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46667,7 +46667,7 @@
         <v>45394.34818287037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         <v>44446.56373842592</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>44624</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>44928.57497685185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45267.48949074074</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45299</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45264.80158564815</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45314.69070601852</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44875</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44505.56627314815</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45614.3747337963</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>44620.55774305556</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45261</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45384.37467592592</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45436.38177083333</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45644.43983796296</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47584,7 +47584,7 @@
         <v>45394.33961805556</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>44911</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47698,7 +47698,7 @@
         <v>44313</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45113.43203703704</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47812,7 +47812,7 @@
         <v>45099.52606481482</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47869,7 +47869,7 @@
         <v>45155</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44427.54488425926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45547.43822916667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45579.4727662037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45579</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45702.49078703704</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48211,7 +48211,7 @@
         <v>45568</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48268,7 +48268,7 @@
         <v>45772</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48325,7 +48325,7 @@
         <v>44838.42135416667</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48382,7 +48382,7 @@
         <v>44302</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48439,7 +48439,7 @@
         <v>45674.4733449074</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48496,7 +48496,7 @@
         <v>45637.3090162037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48558,7 +48558,7 @@
         <v>45637.31978009259</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48620,7 +48620,7 @@
         <v>44700.65032407407</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48677,7 +48677,7 @@
         <v>45424.34530092592</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48734,7 +48734,7 @@
         <v>45240.37677083333</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48791,7 +48791,7 @@
         <v>44524</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48848,7 +48848,7 @@
         <v>45226.57850694445</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48905,7 +48905,7 @@
         <v>45314.68846064815</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48962,7 +48962,7 @@
         <v>45009.68813657408</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45540.55045138889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>44740.4180324074</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>44949.4493287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>44265</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>45758.41136574074</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49314,7 +49314,7 @@
         <v>45236</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49371,7 +49371,7 @@
         <v>45614.33466435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49428,7 +49428,7 @@
         <v>45685.41125</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49485,7 +49485,7 @@
         <v>45109.83387731481</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49542,7 +49542,7 @@
         <v>45110.37491898148</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49599,7 +49599,7 @@
         <v>44994</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49656,7 +49656,7 @@
         <v>45720.30268518518</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49713,7 +49713,7 @@
         <v>44621.48859953704</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49770,7 +49770,7 @@
         <v>44903.32229166666</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49827,7 +49827,7 @@
         <v>44489.36054398148</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49884,7 +49884,7 @@
         <v>45201</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         <v>45436.36854166666</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49998,7 +49998,7 @@
         <v>44250</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50055,7 +50055,7 @@
         <v>45386.59690972222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50112,7 +50112,7 @@
         <v>45439.46385416666</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>44628.67694444444</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         <v>44614.42685185185</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50283,7 +50283,7 @@
         <v>45119.4822337963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>45152</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>45680</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>45574</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>45372.51082175926</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50568,7 +50568,7 @@
         <v>45215</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50625,7 +50625,7 @@
         <v>45547</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50682,7 +50682,7 @@
         <v>44795</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         <v>45646.8040625</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50796,7 +50796,7 @@
         <v>45449.62283564815</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50853,7 +50853,7 @@
         <v>45449.62583333333</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50910,7 +50910,7 @@
         <v>45182</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50967,7 +50967,7 @@
         <v>45240.3635300926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51024,7 +51024,7 @@
         <v>45240.39980324074</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51081,7 +51081,7 @@
         <v>45166.33278935185</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51138,7 +51138,7 @@
         <v>44984</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51195,7 +51195,7 @@
         <v>45155.56731481481</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45112.54576388889</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>44960.56908564815</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>44620.35722222222</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45559</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>44867</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45188</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45370.43637731481</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45411.88930555555</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51713,7 +51713,7 @@
         <v>45559</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51770,7 +51770,7 @@
         <v>45329</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51832,7 +51832,7 @@
         <v>45406.56274305555</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51889,7 +51889,7 @@
         <v>44446.48659722223</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51946,7 +51946,7 @@
         <v>45461.85684027777</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52008,7 +52008,7 @@
         <v>45432</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45091</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52127,7 +52127,7 @@
         <v>45546.66178240741</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52184,7 +52184,7 @@
         <v>45264.80734953703</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52241,7 +52241,7 @@
         <v>44698</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44627.6955787037</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44602</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45548.37193287037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45176.46045138889</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>44904.48119212963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45051</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>44685</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>44685</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>45755</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52811,7 +52811,7 @@
         <v>45035.56302083333</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52868,7 +52868,7 @@
         <v>44343</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52925,7 +52925,7 @@
         <v>44949.44320601852</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52982,7 +52982,7 @@
         <v>45138</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53039,7 +53039,7 @@
         <v>44984</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53096,7 +53096,7 @@
         <v>45559</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53153,7 +53153,7 @@
         <v>45062.5940162037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53210,7 +53210,7 @@
         <v>44712.45701388889</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53267,7 +53267,7 @@
         <v>45176.46609953704</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53324,7 +53324,7 @@
         <v>45252.56825231481</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53381,7 +53381,7 @@
         <v>45252.60836805555</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53438,7 +53438,7 @@
         <v>45331.35601851852</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53495,7 +53495,7 @@
         <v>45331.35946759259</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53552,7 +53552,7 @@
         <v>45331.3629050926</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53609,7 +53609,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         <v>45299</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53723,7 +53723,7 @@
         <v>45117</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53780,7 +53780,7 @@
         <v>44657.40945601852</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53837,7 +53837,7 @@
         <v>45303</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53894,7 +53894,7 @@
         <v>45711</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -53951,7 +53951,7 @@
         <v>45758.41546296296</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54013,7 +54013,7 @@
         <v>45600.45130787037</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54070,7 +54070,7 @@
         <v>44972.4353587963</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54127,7 +54127,7 @@
         <v>45109.88641203703</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54184,7 +54184,7 @@
         <v>44575</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54241,7 +54241,7 @@
         <v>45071</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54298,7 +54298,7 @@
         <v>45071.61512731481</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54355,7 +54355,7 @@
         <v>45392.35590277778</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54412,7 +54412,7 @@
         <v>45183.60244212963</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54469,7 +54469,7 @@
         <v>44950.55744212963</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54526,7 +54526,7 @@
         <v>44988.39340277778</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54583,7 +54583,7 @@
         <v>45071</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54640,7 +54640,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54697,7 +54697,7 @@
         <v>45720.54211805556</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54754,7 +54754,7 @@
         <v>44967</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54816,7 +54816,7 @@
         <v>44901.43681712963</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54873,7 +54873,7 @@
         <v>44901.44385416667</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54930,7 +54930,7 @@
         <v>45308.48898148148</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>44376.60693287037</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55049,7 +55049,7 @@
         <v>45386.66395833333</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         <v>45082</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55163,7 +55163,7 @@
         <v>45182</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55220,7 +55220,7 @@
         <v>45674.4681712963</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55277,7 +55277,7 @@
         <v>45601</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55334,7 +55334,7 @@
         <v>44998.39121527778</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55391,7 +55391,7 @@
         <v>45188.57582175926</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55448,7 +55448,7 @@
         <v>45371.52966435185</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55505,7 +55505,7 @@
         <v>45572.43400462963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55562,7 +55562,7 @@
         <v>45327.82945601852</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55624,7 +55624,7 @@
         <v>44620</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55686,7 +55686,7 @@
         <v>45755</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55743,7 +55743,7 @@
         <v>45769.40989583333</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55800,7 +55800,7 @@
         <v>45607.56002314815</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55857,7 +55857,7 @@
         <v>45713.43387731481</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55914,7 +55914,7 @@
         <v>45124.51753472222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -55971,7 +55971,7 @@
         <v>45616</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56028,7 +56028,7 @@
         <v>45275</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56085,7 +56085,7 @@
         <v>45175</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56142,7 +56142,7 @@
         <v>45338.61513888889</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>44748.32376157407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56256,7 +56256,7 @@
         <v>45646.61111111111</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45574.59706018519</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56370,7 +56370,7 @@
         <v>45562.33819444444</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56427,7 +56427,7 @@
         <v>45615.52241898148</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56484,7 +56484,7 @@
         <v>45419.61716435185</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56541,7 +56541,7 @@
         <v>45777.54184027778</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56598,7 +56598,7 @@
         <v>45777.54693287037</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56655,7 +56655,7 @@
         <v>45519</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56712,7 +56712,7 @@
         <v>45089.63065972222</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56769,7 +56769,7 @@
         <v>45278.46920138889</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56826,7 +56826,7 @@
         <v>45670</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56883,7 +56883,7 @@
         <v>45602.49121527778</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
         <v>45782.62265046296</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         <v>45553.43114583333</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57054,7 +57054,7 @@
         <v>45782.61675925926</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45546</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         <v>45784.48793981481</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57225,7 +57225,7 @@
         <v>45709.60627314815</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57282,7 +57282,7 @@
         <v>45785.32844907408</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>45784.4921412037</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>45176.58252314815</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>45785.54833333333</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57510,7 +57510,7 @@
         <v>44783</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57567,7 +57567,7 @@
         <v>45266</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57629,7 +57629,7 @@
         <v>45712.55288194444</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45679.65525462963</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45789.39083333333</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57800,7 +57800,7 @@
         <v>45679</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57857,7 +57857,7 @@
         <v>45230</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -57914,7 +57914,7 @@
         <v>44783</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -57971,7 +57971,7 @@
         <v>45568.36784722222</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58028,7 +58028,7 @@
         <v>45511</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58085,7 +58085,7 @@
         <v>45636.36040509259</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58147,7 +58147,7 @@
         <v>45786.46171296296</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58209,7 +58209,7 @@
         <v>45345</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58266,7 +58266,7 @@
         <v>45789.38111111111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58323,7 +58323,7 @@
         <v>45789.38739583334</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58380,7 +58380,7 @@
         <v>45252</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         <v>44407</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>45594</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58551,7 +58551,7 @@
         <v>45345</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45562.70030092593</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45590</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58722,7 +58722,7 @@
         <v>45597.63311342592</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58779,7 +58779,7 @@
         <v>45637.31363425926</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58841,7 +58841,7 @@
         <v>45576.55013888889</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -58898,7 +58898,7 @@
         <v>45565.32006944445</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -58955,7 +58955,7 @@
         <v>45524.58696759259</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59012,7 +59012,7 @@
         <v>45670.48797453703</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45793.59197916667</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59126,7 +59126,7 @@
         <v>45793.60109953704</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59183,7 +59183,7 @@
         <v>45793.59478009259</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59240,7 +59240,7 @@
         <v>45793.61269675926</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59297,7 +59297,7 @@
         <v>45796.39645833334</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -575,7 +575,7 @@
         <v>45895</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44980</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45208</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44977.41337962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44791</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45099.51319444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>46050.43190972223</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45810.5565162037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44599.69256944444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44984</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45827.50682870371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45895.5059375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45898.45767361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45842.29693287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45849.56431712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44729</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45322</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>45406.55770833333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45546.56554398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45565.49403935186</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44992.68729166667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44888.43023148148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44285.63270833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44732</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44841.49872685185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44620.55424768518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44620.56054398148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44453.56091435185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44813</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44557.47803240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44508.83615740741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44875.47472222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44356.46040509259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44272</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44326</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44452</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44298</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44460.54369212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44539.38949074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44755</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44713</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44356.4577662037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44424</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44452.57429398148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44351</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44524.60759259259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44489.36836805556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44865.31504629629</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>44753.64795138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44575</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44533.37256944444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44376</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44461.58863425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44570.7678125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44494.43064814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44641.41877314815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44692.6459375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44690</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44470.63061342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44865</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44610.61052083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44791.5112962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44603.34966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44804.43328703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44452.57803240741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44292</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44546</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44388.75799768518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44424</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44265</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44298.48719907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44272</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44327.36415509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44722</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44722.47052083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44867.48452546296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44511</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44460</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44330.85600694444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44839</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44298</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347.37032407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44364.57402777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44791.50940972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44875.48474537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44532</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44459.41479166667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44879.36677083333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44595.53346064815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44267.52525462963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44494.42767361111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44466.60142361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44369.60105324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44489</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44456.47127314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>44529.64541666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44631.51841435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>44798</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44427.38479166666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44266.64517361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44448.62255787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44448.62701388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44417</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44620.48642361111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44620.56289351852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44452.59166666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44302.41256944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44636.91965277777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44519.39663194444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44748.33731481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44888.46783564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44820</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44334.62680555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44463.34797453704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44371.61570601852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44285.60979166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44448.61657407408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44474</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44509.57108796296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44522.40835648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44533.36805555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44722.49434027778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44441</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44685</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44468</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44698</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44680.58664351852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44631.64724537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44749.62980324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44711.4805324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44343</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44420</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44753.66400462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44676.45506944445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44540.34863425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>44428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44414</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44540.35796296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>44698.44061342593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44685.90943287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>44641.41453703704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44620</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44539.36767361111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>44631.46165509259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44523.41112268518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44375.38892361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>44306.65480324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44312</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44753.5284375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44712.58903935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44596</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45075</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45252.57751157408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45274.61003472222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>44448</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45395.6982175926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>44967</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44586.42520833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44728</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45147.59756944444</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45615.52596064815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45377.44168981481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45561</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44676</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>45775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>45477.3696412037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44965</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45362</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45082</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>45107.45663194444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45631.62325231481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45617.87607638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44631.53199074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45695.38024305556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>45457</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45399</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45399</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45310.42872685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45635.47998842593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45086.72387731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45089.63690972222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45091</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>44435</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>45574.71269675926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44991.37282407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>44939.42466435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45034</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45637.31768518518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45117</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>45117</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45188</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45033.46269675926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45700.4577199074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45303</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44545.69108796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45107.6415162037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44904</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44540.33586805555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45701.45875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45019.64087962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45306</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44473.47971064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45344</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45155.57315972223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45359.52144675926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45608</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>45155</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45155</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45466.61302083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>45272.58155092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44928.39131944445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44570.82280092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>45447</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45247.56596064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45247.56952546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44930.60707175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>45727.45702546297</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44558.59878472222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45164</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45164.6913425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44509.57325231482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45107.63880787037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44490</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>44467</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45071</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45103</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44804</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44804</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>45246.34444444445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44683</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44481.71746527778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45167</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44522.34871527777</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45244.59684027778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44749.61423611111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45701.45229166667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45033.56914351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45244.5584375</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45580.68637731481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45580.6872337963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45279.36726851852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45763.56696759259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45610.40166666666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45194.5039699074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45362</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45461.56465277778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44818.77861111111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45553.6357175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45366.35745370371</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44971.51954861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44900</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45455.58665509259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44312.30976851852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45323.60738425926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45475.38958333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45710.3284375</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44937</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44950.55974537037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>45553.65998842593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45180.46916666667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>45685.49436342593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45181.53826388889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44426</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45884.46671296296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44582</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45887.54020833333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>45240.38824074074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45664.49270833333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44617.58907407407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>45574.59</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>45793.58851851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45173</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>45274.60413194444</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>45820.36880787037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45820.78407407407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45821.34012731481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45671</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45803.88311342592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44753.66082175926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>45394.33746527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45635.46958333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45029.70599537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45702.43898148148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45191</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45327.82774305555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45825.41503472222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45875</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45891</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44483.60684027777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45394.32820601852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45890.36122685186</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45176.46469907407</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45827.38292824074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45097</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44883.55409722222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45152.32761574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45831.74694444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44984</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45831.75487268518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>45897.55859953703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>45897.56900462963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45833.55715277778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45832.55674768519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45896.51361111111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45034.46636574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45896.51149305556</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45832.49506944444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45833.55179398148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44938</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44881.59844907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>45898.30145833334</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45898.30258101852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44951</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45036</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44545.69655092592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45881.4999537037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45203.38741898148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>45898.41762731481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45646.79543981481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45902.7003125</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45834.49486111111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>45443</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>45646.7996412037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>45903.55363425926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>45902.70890046296</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44691.57900462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45903.55202546297</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45154.61569444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45839.59554398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>45903.51274305556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>45904.31614583333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45838.44895833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45839.59809027778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45434.6920949074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44993.65773148148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45107.41297453704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45001</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45904.42247685185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45905.66465277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44370</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45695.38659722222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45908.6147337963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>45792.53266203704</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45789.36847222222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45908.47</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45908.61346064815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>45247.57582175926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45841</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45840.47287037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45909.74082175926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>45709.56060185185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>45349.62076388889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45170</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>45911.5083912037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45911.51158564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44481.71842592592</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44945</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44949</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45841.91457175926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45677.59115740741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45841.90819444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45238.45707175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45036</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>45848.61209490741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>45553.66137731481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45751.41162037037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45848.61425925926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>44452.5708912037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45103</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45919.45515046296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45700.4653587963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45917.84770833333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45919.59701388889</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45722</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45210.36392361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45923.67896990741</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45183</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45183</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45250.43831018519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45922.34325231481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45922.47166666666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45922.51623842592</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45922.51841435185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>44391</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45923.674375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45922.47278935185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45474</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45684.55832175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45090.69401620371</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45548.36065972222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45698.40377314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45925.70990740741</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45924.49310185185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44964.34165509259</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45559</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45260.57837962963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45925.38702546297</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45924</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45644.55795138889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45873.48318287037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45926.43168981482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45926.59025462963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>44631.46039351852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>45926.32541666667</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45873</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45873.61965277778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45873.62280092593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44454</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44936.61140046296</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44936</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45931.43657407408</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45873.45962962963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45727.33197916667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45930.46203703704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45467</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45467</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45467</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45874.68646990741</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>45875.59371527778</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>45553.64894675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45877</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>45742.31431712963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>45932.53429398148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>45933.29821759259</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>45933.41994212963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45876.65726851852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45082</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45082.41980324074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45880</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45881.47059027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45881.47516203704</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45755.48774305556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>45882.43188657407</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45757.32127314815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>44634</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45035.58140046296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>44462</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45937.45518518519</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45938.56199074074</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45937.45954861111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45553.89721064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45887.58039351852</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45445.42417824074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45342.61726851852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44728</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>45266</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45940.00979166666</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44991.37030092593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45887.57631944444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44489</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44904</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45884.4652662037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45944.38280092592</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45062.41892361111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44964</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45267.54662037037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45895.48666666666</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45012</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45681.57925925926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>45162.46358796296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>45412.33401620371</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>45329</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44909.56182870371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45825.70871527777</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44928.37655092592</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>45211</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>44258</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44965.48167824074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45947.62445601852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44790</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45950.91234953704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45951.43425925926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>45267.54905092593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45264</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45950.91074074074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>45950.91810185185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>45951.46040509259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44888.47229166667</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45093</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44895</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45107.30564814815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45953.42959490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45069.57748842592</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44935</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45002</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45408.34063657407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45644.39822916667</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45229</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45191.32893518519</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45547</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>44518.26645833333</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45264</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45264.80452546296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45596.8827662037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>45106.30399305555</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>45618.40965277778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45964.48408564815</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45407.56440972222</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45539.60410879629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45964</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44967.4374537037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44967.48209490741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44930.58310185185</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45097</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45331.36413194444</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45971.28083333333</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33878,7 +33878,7 @@
         <v>44950</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33935,7 +33935,7 @@
         <v>45197.63912037037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>45967.75966435186</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         <v>44599.46640046296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         <v>45439</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34163,7 +34163,7 @@
         <v>44988.38652777778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>45688</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34277,7 +34277,7 @@
         <v>45432.37760416666</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45972.59927083334</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>45727.42905092592</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>45727.4515625</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45412.33927083333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45771</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>44756</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>44953</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44599.69871527778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45002</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44266.43513888889</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45533.54414351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45978.8705787037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>45979.6515162037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44993.38681712963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45735.76244212963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45735.76439814815</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44288.50678240741</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>45568</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>45981.67037037037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>45325.3631712963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>45981.5594212963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44930.59520833333</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>45434.50174768519</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>45061</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>45980</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45117</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>45117</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35878,7 +35878,7 @@
         <v>45982</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>45395.69365740741</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45462</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>45173.37136574074</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         <v>45090.69125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>45082.45512731482</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44316</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>45201.86790509259</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44425</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>45552.66143518518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44299.58810185185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44657.34813657407</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>45629.67857638889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45629.68018518519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45062.41542824074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>45077.50006944445</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>44769.55420138889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45600.51381944444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44428.62381944444</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>45331.49637731481</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37018,7 +37018,7 @@
         <v>45992.45549768519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
         <v>44916.42905092592</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45002</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45002</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45992.3244212963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         <v>45979.68732638889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45439.42700231481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>46035.41473379629</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>46035.41711805556</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45993.37643518519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>46035.433125</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         <v>44470</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44995</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37759,7 +37759,7 @@
         <v>45622</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45117</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45129.5234375</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>45547</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>45121.37194444444</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>45574.6072337963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44930.58833333333</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>45635.47542824074</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>44930.61665509259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>46040.80876157407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38334,7 +38334,7 @@
         <v>45005.39861111111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38391,7 +38391,7 @@
         <v>45005</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>46036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>46036</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>45330.61230324074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>46038</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44550.91732638889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>46042.34600694444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38800,7 +38800,7 @@
         <v>45755.74106481481</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38857,7 +38857,7 @@
         <v>45261</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38914,7 +38914,7 @@
         <v>44495</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>46000.44898148148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39028,7 +39028,7 @@
         <v>46000.45493055556</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39085,7 +39085,7 @@
         <v>46000.92856481481</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39142,7 +39142,7 @@
         <v>46000</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39199,7 +39199,7 @@
         <v>45429</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39256,7 +39256,7 @@
         <v>45429.37171296297</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>46038</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>46038</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44545.69075231482</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39494,7 +39494,7 @@
         <v>45691.71813657408</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>46043.59380787037</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>45469.46677083334</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>45106.86053240741</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>45261</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44705</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>45609.47512731481</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>46044.7053125</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>46003.55077546297</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>46044.48165509259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>46044.51675925926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>46045.52300925926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40203,7 +40203,7 @@
         <v>46045.54962962963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40265,7 +40265,7 @@
         <v>44831.61528935185</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40322,7 +40322,7 @@
         <v>44831.61790509259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40379,7 +40379,7 @@
         <v>46045.53836805555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40441,7 +40441,7 @@
         <v>46044.56614583333</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>46044.51519675926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>44960.35675925926</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45356.56041666667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40684,7 +40684,7 @@
         <v>46043.59914351852</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40746,7 +40746,7 @@
         <v>46003.54471064815</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40803,7 +40803,7 @@
         <v>45678.43621527778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40860,7 +40860,7 @@
         <v>45197.63037037037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>46007.54017361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>46007.591875</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>45007.97726851852</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>46048.49688657407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45408.29181712963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>44627.42074074074</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41269,7 +41269,7 @@
         <v>46007.59954861111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41331,7 +41331,7 @@
         <v>45601.67561342593</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41388,7 +41388,7 @@
         <v>46007.5422337963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45546.58138888889</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>45307.39928240741</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>46008.36716435185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>46049.42145833333</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>46049</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>45540.59579861111</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41807,7 +41807,7 @@
         <v>45540.64592592593</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41864,7 +41864,7 @@
         <v>44463</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41921,7 +41921,7 @@
         <v>45300.4487962963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41978,7 +41978,7 @@
         <v>45002.41061342593</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>44895.51835648148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>44916.42804398148</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45726</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44655.47528935185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44936.62181712963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44936</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45160</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>45426.43824074074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42548,7 +42548,7 @@
         <v>46010</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42605,7 +42605,7 @@
         <v>45896.5199537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>45401.35483796296</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44748.32592592593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>45139</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>44820</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42890,7 +42890,7 @@
         <v>46038</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>45078.66384259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>45078</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>46038</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>45106.82878472222</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>46010</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>46000</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43289,7 +43289,7 @@
         <v>45215.35358796296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>45109.84163194444</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>44673.64371527778</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43460,7 +43460,7 @@
         <v>45328</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>46043.58241898148</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>46056.39016203704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>44945.43136574074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>44728</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45007</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>44907.72450231481</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>46056.39130787037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>45684.55307870371</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>45702.48780092593</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>46058.6093287037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45063.50965277778</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45063.51554398148</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>45644.59047453704</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>44390.6009837963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>45474.37907407407</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>45302.6375462963</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>44820</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44491,7 +44491,7 @@
         <v>46048.53172453704</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44548,7 +44548,7 @@
         <v>45215.42108796296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44605,7 +44605,7 @@
         <v>46063.72636574074</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>46063.74853009259</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44719,7 +44719,7 @@
         <v>45245.43540509259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44776,7 +44776,7 @@
         <v>46063.59994212963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44833,7 +44833,7 @@
         <v>44963</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44890,7 +44890,7 @@
         <v>45155.72224537037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         <v>45418</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45009,7 +45009,7 @@
         <v>45085.68162037037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>45756</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>46065.35259259259</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>45439.46791666667</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
         <v>45034.29767361111</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45294,7 +45294,7 @@
         <v>45394.34818287037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45351,7 +45351,7 @@
         <v>44446.56373842592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45408,7 +45408,7 @@
         <v>44624</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45465,7 +45465,7 @@
         <v>44928.57497685185</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45522,7 +45522,7 @@
         <v>45267.48949074074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>45299</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45264.80158564815</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45314.69070601852</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44875</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45807,7 +45807,7 @@
         <v>44505.56627314815</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45864,7 +45864,7 @@
         <v>45614.3747337963</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45921,7 +45921,7 @@
         <v>44620.55774305556</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45983,7 +45983,7 @@
         <v>45261</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46040,7 +46040,7 @@
         <v>45384.37467592592</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46097,7 +46097,7 @@
         <v>45436.38177083333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46154,7 +46154,7 @@
         <v>45644.43983796296</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46211,7 +46211,7 @@
         <v>45394.33961805556</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46268,7 +46268,7 @@
         <v>44911</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46325,7 +46325,7 @@
         <v>44313</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46382,7 +46382,7 @@
         <v>45113.43203703704</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>46029</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>46031.4178587963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>46031.60525462963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46610,7 +46610,7 @@
         <v>46031.5949537037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46667,7 +46667,7 @@
         <v>45099.52606481482</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         <v>45155</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>44427.54488425926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>45547.43822916667</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45579.4727662037</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45579</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45702.49078703704</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45568</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45772</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44838.42135416667</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>46031.57244212963</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>46031.60041666667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47351,7 +47351,7 @@
         <v>44302</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47408,7 +47408,7 @@
         <v>46030.27077546297</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47465,7 +47465,7 @@
         <v>45674.4733449074</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47522,7 +47522,7 @@
         <v>46029.92524305556</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45637.3090162037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>45637.31978009259</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>44700.65032407407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45424.34530092592</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45240.37677083333</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>44524</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45226.57850694445</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45314.68846064815</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45009.68813657408</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45540.55045138889</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>44740.4180324074</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>44949.4493287037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>44265</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45758.41136574074</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45236</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45614.33466435185</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45685.41125</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45109.83387731481</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45110.37491898148</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>44994</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48739,7 +48739,7 @@
         <v>45720.30268518518</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48796,7 +48796,7 @@
         <v>44621.48859953704</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48853,7 +48853,7 @@
         <v>44903.32229166666</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48910,7 +48910,7 @@
         <v>44489.36054398148</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48967,7 +48967,7 @@
         <v>45201</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45436.36854166666</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>44250</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>45386.59690972222</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>45439.46385416666</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>44628.67694444444</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49309,7 +49309,7 @@
         <v>44614.42685185185</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49366,7 +49366,7 @@
         <v>45119.4822337963</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49423,7 +49423,7 @@
         <v>45152</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49480,7 +49480,7 @@
         <v>45680</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49537,7 +49537,7 @@
         <v>45574</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49594,7 +49594,7 @@
         <v>45372.51082175926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49651,7 +49651,7 @@
         <v>45215</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49708,7 +49708,7 @@
         <v>45547</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49765,7 +49765,7 @@
         <v>44795</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49822,7 +49822,7 @@
         <v>45646.8040625</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49879,7 +49879,7 @@
         <v>45449.62283564815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49936,7 +49936,7 @@
         <v>45449.62583333333</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45182</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45240.3635300926</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45240.39980324074</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50164,7 +50164,7 @@
         <v>45166.33278935185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50221,7 +50221,7 @@
         <v>44984</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50278,7 +50278,7 @@
         <v>45155.56731481481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50335,7 +50335,7 @@
         <v>45112.54576388889</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>44960.56908564815</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>44620.35722222222</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45559</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>44867</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45188</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45370.43637731481</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45411.88930555555</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50796,7 +50796,7 @@
         <v>45559</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50853,7 +50853,7 @@
         <v>45329</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50915,7 +50915,7 @@
         <v>45406.56274305555</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50972,7 +50972,7 @@
         <v>44446.48659722223</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51029,7 +51029,7 @@
         <v>45461.85684027777</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51091,7 +51091,7 @@
         <v>45432</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51153,7 +51153,7 @@
         <v>45091</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51210,7 +51210,7 @@
         <v>45546.66178240741</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>45264.80734953703</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51324,7 +51324,7 @@
         <v>44698</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         <v>44627.6955787037</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51438,7 +51438,7 @@
         <v>44602</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51495,7 +51495,7 @@
         <v>45548.37193287037</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51552,7 +51552,7 @@
         <v>45176.46045138889</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51609,7 +51609,7 @@
         <v>44904.48119212963</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         <v>45051</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51723,7 +51723,7 @@
         <v>44685</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51780,7 +51780,7 @@
         <v>44685</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51837,7 +51837,7 @@
         <v>45755</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51894,7 +51894,7 @@
         <v>45035.56302083333</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51951,7 +51951,7 @@
         <v>44343</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52008,7 +52008,7 @@
         <v>44949.44320601852</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52065,7 +52065,7 @@
         <v>45138</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52122,7 +52122,7 @@
         <v>44984</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52179,7 +52179,7 @@
         <v>45559</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>45062.5940162037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>44712.45701388889</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>45176.46609953704</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45252.56825231481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45252.60836805555</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52521,7 +52521,7 @@
         <v>45331.35601851852</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52578,7 +52578,7 @@
         <v>45331.35946759259</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52635,7 +52635,7 @@
         <v>45331.3629050926</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52692,7 +52692,7 @@
         <v>45005</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         <v>45299</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52806,7 +52806,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52863,7 +52863,7 @@
         <v>44657.40945601852</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52920,7 +52920,7 @@
         <v>45303</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52977,7 +52977,7 @@
         <v>45711</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53034,7 +53034,7 @@
         <v>45758.41546296296</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53096,7 +53096,7 @@
         <v>45600.45130787037</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53153,7 +53153,7 @@
         <v>44972.4353587963</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53210,7 +53210,7 @@
         <v>45109.88641203703</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53267,7 +53267,7 @@
         <v>44575</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53324,7 +53324,7 @@
         <v>45071</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53381,7 +53381,7 @@
         <v>45071.61512731481</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53438,7 +53438,7 @@
         <v>45392.35590277778</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53495,7 +53495,7 @@
         <v>45183.60244212963</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53552,7 +53552,7 @@
         <v>44950.55744212963</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53609,7 +53609,7 @@
         <v>44988.39340277778</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         <v>45071</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53723,7 +53723,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53780,7 +53780,7 @@
         <v>45720.54211805556</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53837,7 +53837,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53899,7 +53899,7 @@
         <v>44901.43681712963</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -53956,7 +53956,7 @@
         <v>44901.44385416667</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54013,7 +54013,7 @@
         <v>45308.48898148148</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54070,7 +54070,7 @@
         <v>44376.60693287037</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54132,7 +54132,7 @@
         <v>45386.66395833333</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         <v>45082</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54246,7 +54246,7 @@
         <v>45182</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54303,7 +54303,7 @@
         <v>45674.4681712963</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54360,7 +54360,7 @@
         <v>45601</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54417,7 +54417,7 @@
         <v>44998.39121527778</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54474,7 +54474,7 @@
         <v>45188.57582175926</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54531,7 +54531,7 @@
         <v>45371.52966435185</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54588,7 +54588,7 @@
         <v>45572.43400462963</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54645,7 +54645,7 @@
         <v>45327.82945601852</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54707,7 +54707,7 @@
         <v>44620</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54769,7 +54769,7 @@
         <v>45755</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54826,7 +54826,7 @@
         <v>45769.40989583333</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         <v>45607.56002314815</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54940,7 +54940,7 @@
         <v>45713.43387731481</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -54997,7 +54997,7 @@
         <v>45124.51753472222</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55054,7 +55054,7 @@
         <v>45616</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55111,7 +55111,7 @@
         <v>45275</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55168,7 +55168,7 @@
         <v>45175</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55225,7 +55225,7 @@
         <v>45338.61513888889</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55282,7 +55282,7 @@
         <v>44748.32376157407</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55339,7 +55339,7 @@
         <v>45646.61111111111</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55396,7 +55396,7 @@
         <v>45574.59706018519</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55453,7 +55453,7 @@
         <v>45562.33819444444</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55510,7 +55510,7 @@
         <v>45615.52241898148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55567,7 +55567,7 @@
         <v>45419.61716435185</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55624,7 +55624,7 @@
         <v>45777.54184027778</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55681,7 +55681,7 @@
         <v>45777.54693287037</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55738,7 +55738,7 @@
         <v>45519</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55795,7 +55795,7 @@
         <v>45089.63065972222</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55852,7 +55852,7 @@
         <v>45278.46920138889</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55909,7 +55909,7 @@
         <v>45670</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -55966,7 +55966,7 @@
         <v>45602.49121527778</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56023,7 +56023,7 @@
         <v>45782.62265046296</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56080,7 +56080,7 @@
         <v>45553.43114583333</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56137,7 +56137,7 @@
         <v>45782.61675925926</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45546</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45784.48793981481</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56308,7 +56308,7 @@
         <v>45709.60627314815</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56365,7 +56365,7 @@
         <v>45785.32844907408</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56422,7 +56422,7 @@
         <v>45784.4921412037</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56479,7 +56479,7 @@
         <v>45176.58252314815</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56536,7 +56536,7 @@
         <v>45785.54833333333</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56593,7 +56593,7 @@
         <v>44783</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56650,7 +56650,7 @@
         <v>45266</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56712,7 +56712,7 @@
         <v>45712.55288194444</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56769,7 +56769,7 @@
         <v>45679.65525462963</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56826,7 +56826,7 @@
         <v>45789.39083333333</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56883,7 +56883,7 @@
         <v>45679</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
         <v>45230</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         <v>44783</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57054,7 +57054,7 @@
         <v>45568.36784722222</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45511</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         <v>45636.36040509259</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57230,7 +57230,7 @@
         <v>45786.46171296296</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57292,7 +57292,7 @@
         <v>45345</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57349,7 +57349,7 @@
         <v>45789.38111111111</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57406,7 +57406,7 @@
         <v>45789.38739583334</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57463,7 +57463,7 @@
         <v>45252</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57520,7 +57520,7 @@
         <v>44407</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57577,7 +57577,7 @@
         <v>45594</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>45345</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>45562.70030092593</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>45590</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45597.63311342592</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57862,7 +57862,7 @@
         <v>45637.31363425926</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -57924,7 +57924,7 @@
         <v>45576.55013888889</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -57981,7 +57981,7 @@
         <v>45565.32006944445</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58038,7 +58038,7 @@
         <v>45524.58696759259</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58095,7 +58095,7 @@
         <v>45670.48797453703</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58152,7 +58152,7 @@
         <v>45793.59197916667</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58209,7 +58209,7 @@
         <v>45793.60109953704</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58266,7 +58266,7 @@
         <v>45793.59478009259</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58323,7 +58323,7 @@
         <v>45793.61269675926</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58380,7 +58380,7 @@
         <v>45796.39645833334</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         <v>45798.66282407408</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>45477.37409722222</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58551,7 +58551,7 @@
         <v>45533.27699074074</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45692.37760416666</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45478.71304398148</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58722,7 +58722,7 @@
         <v>45798</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58779,7 +58779,7 @@
         <v>45684.52679398148</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58836,7 +58836,7 @@
         <v>45637.3166087963</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -58898,7 +58898,7 @@
         <v>45800.43210648148</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -58955,7 +58955,7 @@
         <v>45727</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59012,7 +59012,7 @@
         <v>45800.56369212963</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45800.57278935185</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59126,7 +59126,7 @@
         <v>45805.65516203704</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59183,7 +59183,7 @@
         <v>45803.84655092593</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59240,7 +59240,7 @@
         <v>45811.49784722222</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
